--- a/data/trans_camb/IP18A04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A04-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 7,12</t>
+          <t>-10,91; 7,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -2,32</t>
+          <t>-17,82; -1,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 7,67</t>
+          <t>-12,59; 7,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,28; -7,51</t>
+          <t>-25,62; -7,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 4,44</t>
+          <t>-8,95; 4,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,81; -6,86</t>
+          <t>-19,32; -7,17</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 61,89</t>
+          <t>-52,91; 67,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,57; -14,57</t>
+          <t>-83,26; -0,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,08; 52,3</t>
+          <t>-47,83; 52,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-94,74; -38,69</t>
+          <t>-94,89; -33,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 28,75</t>
+          <t>-38,93; 32,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,54; -41,1</t>
+          <t>-85,06; -42,02</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 5,17</t>
+          <t>-1,6; 5,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,89</t>
+          <t>-2,94; 3,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 7,93</t>
+          <t>1,63; 8,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,92</t>
+          <t>-0,51; 6,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,69</t>
+          <t>0,84; 5,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,97</t>
+          <t>-0,62; 4,19</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 60,94</t>
+          <t>-14,35; 60,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 44,06</t>
+          <t>-24,56; 44,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 150,86</t>
+          <t>17,15; 150,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 105,78</t>
+          <t>-6,9; 112,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,81; 77,57</t>
+          <t>8,72; 76,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 54,71</t>
+          <t>-6,41; 57,62</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 8,87</t>
+          <t>-2,03; 9,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 6,66</t>
+          <t>-3,82; 6,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 8,83</t>
+          <t>-2,85; 8,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 6,14</t>
+          <t>-4,7; 6,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 6,63</t>
+          <t>-1,36; 7,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 4,77</t>
+          <t>-3,03; 5,2</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 172,63</t>
+          <t>-21,31; 160,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 115,68</t>
+          <t>-35,11; 118,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 114,64</t>
+          <t>-22,76; 112,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 85,46</t>
+          <t>-37,17; 84,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 86,74</t>
+          <t>-11,32; 98,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 62,09</t>
+          <t>-25,77; 71,25</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,74</t>
+          <t>-0,99; 4,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,45</t>
+          <t>-3,1; 2,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,25; 6,04</t>
+          <t>0,4; 6,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,83</t>
+          <t>-2,4; 2,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,68</t>
+          <t>0,44; 4,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,78</t>
+          <t>-2,14; 1,98</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 52,8</t>
+          <t>-8,7; 51,9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 27,93</t>
+          <t>-25,2; 22,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,57; 75,09</t>
+          <t>3,3; 76,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 37,1</t>
+          <t>-22,7; 36,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,53; 50,5</t>
+          <t>4,46; 51,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 19,63</t>
+          <t>-19,22; 22,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A04-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-16,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,09</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,92; 7,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,29; -7,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,52; 8,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,29; -0,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; 5,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,43; -7,22</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,13%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,33; 47,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,96; -39,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,89; 68,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,54; -1,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,47; 32,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,6; -41,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,15</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,26</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,09</t>
+          <t>1,71</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 7,78</t>
+          <t>1,24; 7,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -1,23</t>
+          <t>-0,17; 5,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 7,41</t>
+          <t>-1,73; 4,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,62; -7,06</t>
+          <t>-2,74; 3,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 4,71</t>
+          <t>0,85; 5,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -7,17</t>
+          <t>-0,69; 4,08</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,25%</t>
+          <t>72,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-58,29%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,83%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-77,09%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-68,13%</t>
+          <t>20,12%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,91; 67,68</t>
+          <t>12,09; 152,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,26; -0,55</t>
+          <t>-2,55; 117,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 52,71</t>
+          <t>-15,12; 58,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-94,89; -33,28</t>
+          <t>-23,82; 45,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 32,05</t>
+          <t>8,1; 78,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,06; -42,02</t>
+          <t>-7,28; 55,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,11</t>
+          <t>-3,25; 8,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 3,87</t>
+          <t>-5,25; 6,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 8,29</t>
+          <t>-2,39; 8,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 6,03</t>
+          <t>-4,22; 6,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,63</t>
+          <t>-0,98; 6,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,19</t>
+          <t>-3,38; 4,79</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>72,11%</t>
+          <t>39,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>8,4%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 60,97</t>
+          <t>-26,54; 114,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 44,64</t>
+          <t>-40,53; 89,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,15; 150,44</t>
+          <t>-24,13; 145,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 112,37</t>
+          <t>-38,3; 121,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,72; 76,33</t>
+          <t>-10,08; 93,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 57,62</t>
+          <t>-29,03; 66,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 9,5</t>
+          <t>0,6; 6,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 6,51</t>
+          <t>-2,38; 2,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 8,67</t>
+          <t>-1,07; 4,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 6,41</t>
+          <t>-3,13; 2,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 7,21</t>
+          <t>0,24; 4,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 5,2</t>
+          <t>-2,02; 1,77</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>36,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>-1,48%</t>
         </is>
       </c>
     </row>
@@ -1183,207 +1183,50 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 160,14</t>
+          <t>5,51; 74,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 118,24</t>
+          <t>-22,59; 36,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 112,54</t>
+          <t>-9,49; 45,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 84,93</t>
+          <t>-26,05; 26,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 98,11</t>
+          <t>1,82; 51,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 71,25</t>
+          <t>-18,12; 19,27</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 4,75</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,1; 2,02</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 6,24</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 2,9</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 4,66</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 1,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>16,1%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-4,08%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>36,14%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>25,26%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-1,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-8,7; 51,9</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-25,2; 22,14</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 76,14</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-22,7; 36,53</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>4,46; 51,9</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-19,22; 22,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
